--- a/ProjectExecution/Sprint001-2020062920200711/SprintBurndown001.xlsx
+++ b/ProjectExecution/Sprint001-2020062920200711/SprintBurndown001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Anodiam</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Median Line</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
@@ -90,13 +87,34 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>Create CRUD functionality in a Data Access Layer using JPA and MySQL inside a developer machine</t>
+  </si>
+  <si>
+    <t>Test the above task # 1001 using Junit</t>
+  </si>
+  <si>
+    <t>Create CRUD functionality in a REST API web service  inside the developer machine using the above Data Access layer from Task # 1001</t>
+  </si>
+  <si>
+    <t>Test the above task # 1003 using Postman Tool</t>
+  </si>
+  <si>
+    <t>Containerize the .jar file from above task # 1003 into a docker container and check it into docker hub</t>
+  </si>
+  <si>
+    <t>Deploy the Docker container from above task # 1005 on a Kubernetes Cluster in GCP</t>
+  </si>
+  <si>
+    <t>Test the above task # 1006 using Postman Tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,6 +164,12 @@
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -167,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,11 +214,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -225,6 +264,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,14 +274,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -366,37 +459,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,34 +561,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>27.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>23.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>13.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.000000000000002</c:v>
+                  <c:v>10.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9999999999999982</c:v>
+                  <c:v>6.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9999999999999991</c:v>
+                  <c:v>3.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -505,11 +598,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100255616"/>
-        <c:axId val="100295040"/>
+        <c:axId val="95832704"/>
+        <c:axId val="95851264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100255616"/>
+        <c:axId val="95832704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,13 +645,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100295040"/>
+        <c:crossAx val="95851264"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100295040"/>
+        <c:axId val="95851264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100255616"/>
+        <c:crossAx val="95832704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -652,7 +745,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -663,11 +756,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>261937</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5238750" cy="3105150"/>
+    <xdr:ext cx="7858125" cy="5148262"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -891,7 +984,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -905,31 +998,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" s="15" customFormat="1" ht="30">
-      <c r="A3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -956,9 +1049,9 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="19">
+        <v>23</v>
+      </c>
+      <c r="D5" s="16">
         <v>44002</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1003,26 +1096,27 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="7.140625" customWidth="1"/>
     <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -1054,53 +1148,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25">
+    <row r="2" spans="1:11" ht="38.25">
       <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
         <v>1001</v>
       </c>
-      <c r="B2" s="8">
-        <v>1001001</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
-        <v>2</v>
+      <c r="C2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20">
+        <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="9">
-        <v>5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="11">
         <f>SUM(D2:D21)</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K2" s="12">
         <f>J2*(1-H2/10)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25.5">
       <c r="A3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1001002</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="20">
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9">
-        <v>4</v>
-      </c>
+      <c r="F3" s="9"/>
       <c r="H3" s="8">
         <v>1</v>
       </c>
@@ -1109,212 +1203,192 @@
       </c>
       <c r="J3" s="12">
         <f>J2-I3</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K3" s="12">
         <f>J2*(1-H3/10)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="51">
       <c r="A4" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1001003</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8">
         <v>1</v>
       </c>
+      <c r="B4" s="20">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20">
+        <v>5</v>
+      </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9"/>
       <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="10">
-        <v>7</v>
-      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="12">
         <f t="shared" ref="J4:J12" si="0">J3-I4</f>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K4" s="12">
         <f>J2*(1-H4/10)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75">
+        <v>27.200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.5">
       <c r="A5" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1001004</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1004</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="20">
+        <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9">
-        <v>7</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K5" s="12">
         <f>J2*(1-H5/10)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
+        <v>23.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="38.25">
       <c r="A6" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1001005</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1005</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="20">
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9"/>
       <c r="H6" s="8">
         <v>4</v>
       </c>
-      <c r="I6" s="10">
-        <v>13</v>
-      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K6" s="12">
         <f>J2*(1-H6/10)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="38.25">
       <c r="A7" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1002001</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
         <v>1</v>
       </c>
+      <c r="B7" s="20">
+        <v>1006</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="20">
+        <v>8</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="H7" s="8">
         <v>5</v>
       </c>
-      <c r="I7" s="10">
-        <v>2</v>
-      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K7" s="12">
         <f>J2*(1-H7/10)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25.5">
       <c r="A8" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1002002</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
         <v>1</v>
       </c>
+      <c r="B8" s="20">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5</v>
+      </c>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9"/>
       <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
+      <c r="I8" s="10"/>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K8" s="12">
         <f>J2*(1-H8/10)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1002003</v>
-      </c>
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="H9" s="8">
         <v>7</v>
       </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K9" s="12">
         <f>J2*(1-H9/10)</f>
-        <v>15.000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1002004</v>
-      </c>
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>3</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="9"/>
       <c r="H10" s="8">
@@ -1323,26 +1397,20 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K10" s="12">
         <f>J2*(1-H10/10)</f>
-        <v>9.9999999999999982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1002005</v>
-      </c>
+        <v>6.7999999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="9"/>
       <c r="H11" s="8">
@@ -1351,226 +1419,159 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K11" s="12">
         <f>J2*(1-H11/10)</f>
-        <v>4.9999999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1003001</v>
-      </c>
+        <v>3.3999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="H12" s="8">
         <v>10</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K12" s="12">
         <f>J2*(1-H12/10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1003002</v>
-      </c>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="9"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14">
         <f>SUM(I3:I12)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1003003</v>
-      </c>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8">
-        <v>5</v>
-      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1003004</v>
-      </c>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1003005</v>
-      </c>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1004001</v>
-      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1004002</v>
-      </c>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8">
-        <v>5</v>
-      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75">
-      <c r="A19" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1004003</v>
-      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1004004</v>
-      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8">
-        <v>5</v>
-      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1004005</v>
-      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH(("To Do"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH(("In Progress"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH(("Done"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Status of an item can be either To Do, In Progress or Done" sqref="E2:E21">
       <formula1>"To Do,In Progress,Done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="F2:F21">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select estimation story points in fibonacci numbers 1, 2, 3, 5, 8 or 13" sqref="D2:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select estimation story points in fibonacci numbers 1, 2, 3, 5, 8 or 13" sqref="D9:D21">
+      <formula1>"1,2,3,5,8,13"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Estimates for Task!!!" error="Please select a Fibonacci value from the dropdown!" sqref="D2:D8">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ProjectExecution/Sprint001-2020062920200711/SprintBurndown001.xlsx
+++ b/ProjectExecution/Sprint001-2020062920200711/SprintBurndown001.xlsx
@@ -80,9 +80,6 @@
     <t>To Do</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Sprint Number 001</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Test the above task # 1006 using Postman Tool</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -267,6 +267,12 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,65 +280,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -468,28 +420,28 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,11 +550,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95832704"/>
-        <c:axId val="95851264"/>
+        <c:axId val="99145984"/>
+        <c:axId val="99181312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95832704"/>
+        <c:axId val="99145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,13 +597,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95851264"/>
+        <c:crossAx val="99181312"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95851264"/>
+        <c:axId val="99181312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95832704"/>
+        <c:crossAx val="99145984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -745,7 +697,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -998,31 +950,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" s="15" customFormat="1" ht="30">
-      <c r="A3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -1049,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="16">
         <v>44002</v>
@@ -1097,7 +1049,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1152,19 +1104,21 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>1001</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="17">
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3</v>
+      </c>
       <c r="H2" s="8">
         <v>0</v>
       </c>
@@ -1182,13 +1136,13 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>1002</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="C3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="17">
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1214,23 +1168,27 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>1003</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="17">
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
       <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
       <c r="J4" s="12">
         <f t="shared" ref="J4:J12" si="0">J3-I4</f>
         <v>34</v>
@@ -1244,26 +1202,30 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>1004</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="17">
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
       <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10">
+        <v>13</v>
+      </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K5" s="12">
         <f>J2*(1-H5/10)</f>
@@ -1274,13 +1236,13 @@
       <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>1005</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="17">
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1293,7 +1255,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K6" s="12">
         <f>J2*(1-H6/10)</f>
@@ -1304,13 +1266,13 @@
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>1006</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="17">
         <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1323,7 +1285,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K7" s="12">
         <f>J2*(1-H7/10)</f>
@@ -1334,13 +1296,13 @@
       <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>1007</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="C8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="17">
         <v>5</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1353,7 +1315,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K8" s="12">
         <f>J2*(1-H8/10)</f>
@@ -1375,7 +1337,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K9" s="12">
         <f>J2*(1-H9/10)</f>
@@ -1397,7 +1359,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K10" s="12">
         <f>J2*(1-H10/10)</f>
@@ -1419,7 +1381,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K11" s="12">
         <f>J2*(1-H11/10)</f>
@@ -1441,7 +1403,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K12" s="12">
         <f>J2*(1-H12/10)</f>
@@ -1460,7 +1422,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14">
         <f>SUM(I3:I12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -1547,17 +1509,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH(("To Do"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH(("In Progress"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH(("Done"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
